--- a/pybna/sql/stress/tables/stress_bike_lane.xlsx
+++ b/pybna/sql/stress/tables/stress_bike_lane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pybna\pybna\sql\stress\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53AFC549-5828-430B-A42D-2581DC41C4C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E554D084-13F9-4934-89FE-DDA6A46FADE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F31A81E7-F0F4-47CF-B45A-C4DA9B9EE623}"/>
+    <workbookView xWindow="30255" yWindow="2745" windowWidth="21600" windowHeight="11775" xr2:uid="{F31A81E7-F0F4-47CF-B45A-C4DA9B9EE623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="9">
   <si>
     <t>f</t>
   </si>
@@ -409,11 +409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B444F16D-22D4-4BD5-8243-27F9ED583C8A}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,9 +1685,6 @@
       <c r="A64">
         <v>3</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
@@ -1695,22 +1692,19 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F64">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
@@ -1718,21 +1712,18 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -1741,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F66">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -1752,10 +1743,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -1764,21 +1752,18 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -1787,18 +1772,18 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F68">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1810,15 +1795,15 @@
         <v>4</v>
       </c>
       <c r="F69">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1830,15 +1815,15 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1850,109 +1835,9 @@
         <v>4</v>
       </c>
       <c r="F71">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>99</v>
-      </c>
-      <c r="G72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="F73">
-        <v>40</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>4</v>
-      </c>
-      <c r="F74">
-        <v>99</v>
-      </c>
-      <c r="G74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-      <c r="F75">
-        <v>40</v>
-      </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-      <c r="F76">
-        <v>99</v>
-      </c>
-      <c r="G76">
         <v>4</v>
       </c>
     </row>

--- a/pybna/sql/stress/tables/stress_bike_lane.xlsx
+++ b/pybna/sql/stress/tables/stress_bike_lane.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pybna\pybna\sql\stress\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E554D084-13F9-4934-89FE-DDA6A46FADE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC7AED-BBF2-4219-953D-7C56DEE57ABF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="2745" windowWidth="21600" windowHeight="11775" xr2:uid="{F31A81E7-F0F4-47CF-B45A-C4DA9B9EE623}"/>
+    <workbookView xWindow="1065" yWindow="2415" windowWidth="21600" windowHeight="11775" xr2:uid="{F31A81E7-F0F4-47CF-B45A-C4DA9B9EE623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="9">
   <si>
     <t>f</t>
   </si>
@@ -409,11 +412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B444F16D-22D4-4BD5-8243-27F9ED583C8A}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
         <v>35</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,10 +1098,10 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -1135,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1155,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -1175,10 +1178,10 @@
         <v>12</v>
       </c>
       <c r="F38">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,16 +1192,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>12</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,10 +1218,10 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1235,10 +1238,10 @@
         <v>12</v>
       </c>
       <c r="F41">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1275,10 +1278,10 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,16 +1312,16 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,10 +1338,10 @@
         <v>14</v>
       </c>
       <c r="F46">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,10 +1358,10 @@
         <v>14</v>
       </c>
       <c r="F47">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,10 +1378,10 @@
         <v>14</v>
       </c>
       <c r="F48">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1389,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>14</v>
       </c>
       <c r="F49">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1409,16 +1412,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>14</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,10 +1438,10 @@
         <v>14</v>
       </c>
       <c r="F51">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,10 +1458,10 @@
         <v>14</v>
       </c>
       <c r="F52">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1475,10 +1478,10 @@
         <v>14</v>
       </c>
       <c r="F53">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,16 +1492,16 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1509,16 +1512,16 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,10 +1538,10 @@
         <v>15</v>
       </c>
       <c r="F56">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1555,10 +1558,10 @@
         <v>15</v>
       </c>
       <c r="F57">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1575,15 +1578,15 @@
         <v>15</v>
       </c>
       <c r="F58">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1595,15 +1598,15 @@
         <v>15</v>
       </c>
       <c r="F59">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1615,10 +1618,10 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,16 +1632,16 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,10 +1658,10 @@
         <v>15</v>
       </c>
       <c r="F62">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,15 +1678,15 @@
         <v>15</v>
       </c>
       <c r="F63">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -1692,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F64">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1712,18 +1715,18 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F65">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -1732,18 +1735,18 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -1755,15 +1758,15 @@
         <v>4</v>
       </c>
       <c r="F67">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -1775,15 +1778,15 @@
         <v>4</v>
       </c>
       <c r="F68">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1795,15 +1798,15 @@
         <v>4</v>
       </c>
       <c r="F69">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1815,29 +1818,89 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>40</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>99</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>6</v>
       </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>4</v>
-      </c>
-      <c r="F71">
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>40</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
         <v>99</v>
       </c>
-      <c r="G71">
+      <c r="G74">
         <v>4</v>
       </c>
     </row>
